--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\_ИКТИБ\ТЯП\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\_ИКТИБ\ТЯП\Лабораторная 1\laba_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7419C9-FAA1-4CD8-B259-B2B7430EFAB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBA010A-5E64-4A11-81BC-69B3CDDEC06F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1B2FF892-490A-4C90-9D47-3CF7BDEFEF69}"/>
   </bookViews>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="48">
   <si>
     <t>Вт</t>
   </si>
@@ -120,6 +118,63 @@
   </si>
   <si>
     <t>Вт(i,j,1 D)</t>
+  </si>
+  <si>
+    <t>iA</t>
+  </si>
+  <si>
+    <t>Вых,Выт</t>
+  </si>
+  <si>
+    <t>Зам(i+1 A)</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>As</t>
+  </si>
+  <si>
+    <t>i,j,1 D</t>
+  </si>
+  <si>
+    <t>Состояние 0</t>
+  </si>
+  <si>
+    <t>Состояние 1</t>
+  </si>
+  <si>
+    <t>Другие лексемы</t>
+  </si>
+  <si>
+    <t>1 Ф</t>
+  </si>
+  <si>
+    <t>Др. элементы</t>
+  </si>
+  <si>
+    <t>Выт,Вых</t>
+  </si>
+  <si>
+    <t>Сост(0),Држ</t>
+  </si>
+  <si>
+    <t>Вых(X),Зам(2Ф),Сост(0)</t>
+  </si>
+  <si>
+    <t>Вт(1Ф)</t>
+  </si>
+  <si>
+    <t>N,C</t>
+  </si>
+  <si>
+    <t>Вых(X)</t>
+  </si>
+  <si>
+    <t>Вых(X),Зам(2A),Сост(0)</t>
+  </si>
+  <si>
+    <t>Сост(1),Вых(X)</t>
   </si>
 </sst>
 </file>
@@ -472,647 +527,933 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8B3DFA-6BE7-4C3E-BFA8-1A6D41607391}">
-  <dimension ref="A2:P14"/>
+  <dimension ref="A2:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K3" t="s">
         <v>27</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L3" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M3" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N3" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O3" t="s">
         <v>21</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P3" t="s">
         <v>22</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q3" t="s">
         <v>23</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="S3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>4</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>5</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>6</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>7</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>8</v>
       </c>
-      <c r="L3">
-        <v>9</v>
-      </c>
-      <c r="M3">
+      <c r="L4">
+        <v>9</v>
+      </c>
+      <c r="M4">
         <v>10</v>
       </c>
-      <c r="N3">
+      <c r="N4">
         <v>11</v>
       </c>
-      <c r="O3">
+      <c r="O4">
         <v>12</v>
       </c>
-      <c r="P3">
+      <c r="P4">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="Q4">
+        <v>14</v>
+      </c>
+      <c r="R4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
         <v>28</v>
       </c>
-      <c r="J4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="L5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
         <v>3</v>
       </c>
-      <c r="H6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="J7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
         <v>4</v>
       </c>
-      <c r="G7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
         <v>5</v>
       </c>
-      <c r="I7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="K8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
         <v>4</v>
       </c>
-      <c r="G8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
         <v>6</v>
       </c>
-      <c r="I8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O8" t="s">
-        <v>0</v>
-      </c>
-      <c r="P8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="K9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
         <v>7</v>
       </c>
-      <c r="F9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L9" t="s">
-        <v>2</v>
-      </c>
-      <c r="M9" t="s">
-        <v>2</v>
-      </c>
-      <c r="N9" t="s">
-        <v>2</v>
-      </c>
-      <c r="O9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="H10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G11" t="s">
         <v>8</v>
       </c>
-      <c r="F10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" t="s">
-        <v>0</v>
-      </c>
-      <c r="N10" t="s">
-        <v>0</v>
-      </c>
-      <c r="O10" t="s">
-        <v>0</v>
-      </c>
-      <c r="P10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
         <v>8</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G12" t="s">
         <v>8</v>
       </c>
-      <c r="F11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
         <v>10</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J12" t="s">
         <v>5</v>
       </c>
-      <c r="I11" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" t="s">
-        <v>2</v>
-      </c>
-      <c r="K11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N11" t="s">
-        <v>0</v>
-      </c>
-      <c r="O11" t="s">
-        <v>0</v>
-      </c>
-      <c r="P11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="K12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
         <v>8</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G13" t="s">
         <v>8</v>
       </c>
-      <c r="F12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" t="s">
-        <v>2</v>
-      </c>
-      <c r="K12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L12" t="s">
-        <v>9</v>
-      </c>
-      <c r="M12" t="s">
-        <v>9</v>
-      </c>
-      <c r="N12" t="s">
-        <v>9</v>
-      </c>
-      <c r="O12" t="s">
-        <v>0</v>
-      </c>
-      <c r="P12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="H13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
         <v>8</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G14" t="s">
         <v>8</v>
       </c>
-      <c r="F13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" t="s">
-        <v>2</v>
-      </c>
-      <c r="K13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13" t="s">
-        <v>9</v>
-      </c>
-      <c r="N13" t="s">
-        <v>9</v>
-      </c>
-      <c r="O13" t="s">
-        <v>9</v>
-      </c>
-      <c r="P13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="H14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
         <v>8</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G15" t="s">
         <v>8</v>
       </c>
-      <c r="F14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M14" t="s">
-        <v>9</v>
-      </c>
-      <c r="N14" t="s">
-        <v>9</v>
-      </c>
-      <c r="O14" t="s">
-        <v>9</v>
-      </c>
-      <c r="P14" t="s">
-        <v>9</v>
+      <c r="H15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" t="s">
+        <v>9</v>
+      </c>
+      <c r="P15" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>9</v>
+      </c>
+      <c r="R15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\_ИКТИБ\ТЯП\Лабораторная 1\laba_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBA010A-5E64-4A11-81BC-69B3CDDEC06F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C7362F-4F0F-42F5-B1B0-89BF5E5373E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1B2FF892-490A-4C90-9D47-3CF7BDEFEF69}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="59">
   <si>
     <t>Вт</t>
   </si>
@@ -54,18 +54,12 @@
     <t>Вых(M+1:),Выт,Држ</t>
   </si>
   <si>
-    <t>Вых(k тип),Выт,Зам(i,j,1 D) Err</t>
-  </si>
-  <si>
     <t>Вых,Выт,Држ</t>
   </si>
   <si>
     <t>Вых,Држ</t>
   </si>
   <si>
-    <t>Вых,Вых(M УПЛ),Зам(M If)</t>
-  </si>
-  <si>
     <t>Стек</t>
   </si>
   <si>
@@ -117,9 +111,6 @@
     <t>Dim</t>
   </si>
   <si>
-    <t>Вт(i,j,1 D)</t>
-  </si>
-  <si>
     <t>iA</t>
   </si>
   <si>
@@ -132,9 +123,6 @@
     <t>I</t>
   </si>
   <si>
-    <t>As</t>
-  </si>
-  <si>
     <t>i,j,1 D</t>
   </si>
   <si>
@@ -162,29 +150,81 @@
     <t>Вых(X),Зам(2Ф),Сост(0)</t>
   </si>
   <si>
-    <t>Вт(1Ф)</t>
-  </si>
-  <si>
     <t>N,C</t>
   </si>
   <si>
     <t>Вых(X)</t>
   </si>
   <si>
-    <t>Вых(X),Зам(2A),Сост(0)</t>
-  </si>
-  <si>
     <t>Сост(1),Вых(X)</t>
+  </si>
+  <si>
+    <t>Вых,Вых(M+1 БП M:),Зам(M+1 If)</t>
+  </si>
+  <si>
+    <t>Вт(i j 1 D)</t>
+  </si>
+  <si>
+    <t>Вт(2А),Сост(0)</t>
+  </si>
+  <si>
+    <t>Вых</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>i,j Function</t>
+  </si>
+  <si>
+    <t>Выт,Вт(1Ф)</t>
+  </si>
+  <si>
+    <t>Вт(i j Function)</t>
+  </si>
+  <si>
+    <t>iФ</t>
+  </si>
+  <si>
+    <t>Зам(i+1 Ф)</t>
+  </si>
+  <si>
+    <t>Ср</t>
+  </si>
+  <si>
+    <t>Чт</t>
+  </si>
+  <si>
+    <t>Пт</t>
+  </si>
+  <si>
+    <t>Сб</t>
+  </si>
+  <si>
+    <t>Вс</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>Ret</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -527,76 +567,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8B3DFA-6BE7-4C3E-BFA8-1A6D41607391}">
-  <dimension ref="A2:S23"/>
+  <dimension ref="A2:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C5" sqref="C5:T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>18</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>19</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>20</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>21</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" t="s">
-        <v>24</v>
-      </c>
       <c r="S3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="T3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>0</v>
       </c>
@@ -645,16 +688,22 @@
       <c r="R4">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <v>16</v>
+      </c>
+      <c r="T4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
         <v>0</v>
@@ -675,7 +724,7 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="L5" t="s">
         <v>2</v>
@@ -698,19 +747,25 @@
       <c r="R5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
         <v>0</v>
@@ -754,19 +809,25 @@
       <c r="R6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
         <v>0</v>
@@ -810,19 +871,25 @@
       <c r="R7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
         <v>0</v>
@@ -866,19 +933,25 @@
       <c r="R8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S8" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
         <v>0</v>
@@ -922,13 +995,19 @@
       <c r="R9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S9" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -940,10 +1019,10 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
         <v>2</v>
@@ -975,34 +1054,40 @@
       <c r="Q10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11" t="s">
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J11" t="s">
         <v>2</v>
@@ -1017,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O11" t="s">
         <v>0</v>
@@ -1031,37 +1116,43 @@
       <c r="R11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S11" t="s">
+        <v>2</v>
+      </c>
+      <c r="T11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H12" t="s">
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J12" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="K12" t="s">
         <v>2</v>
@@ -1070,13 +1161,13 @@
         <v>2</v>
       </c>
       <c r="M12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P12" t="s">
         <v>0</v>
@@ -1087,34 +1178,40 @@
       <c r="R12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S12" t="s">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H13" t="s">
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J13" t="s">
         <v>2</v>
@@ -1126,16 +1223,16 @@
         <v>2</v>
       </c>
       <c r="M13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q13" t="s">
         <v>0</v>
@@ -1143,34 +1240,40 @@
       <c r="R13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S13" t="s">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H14" t="s">
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J14" t="s">
         <v>2</v>
@@ -1182,51 +1285,57 @@
         <v>2</v>
       </c>
       <c r="M14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R14" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H15" t="s">
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J15" t="s">
         <v>2</v>
@@ -1238,45 +1347,51 @@
         <v>2</v>
       </c>
       <c r="M15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="S15" t="s">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
         <v>45</v>
       </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>30</v>
-      </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H16" t="s">
         <v>2</v>
@@ -1311,152 +1426,312 @@
       <c r="R16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" t="s">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
       <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" t="s">
+        <v>2</v>
+      </c>
+      <c r="T17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>55</v>
+      </c>
+      <c r="R18" t="s">
+        <v>56</v>
+      </c>
+      <c r="S18" t="s">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>2</v>
+      </c>
+      <c r="R19" t="s">
+        <v>2</v>
+      </c>
+      <c r="S19" t="s">
+        <v>2</v>
+      </c>
+      <c r="T19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
         <v>34</v>
       </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="E17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" t="s">
-        <v>2</v>
-      </c>
-      <c r="I17" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K17" t="s">
-        <v>2</v>
-      </c>
-      <c r="L17" t="s">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>2</v>
-      </c>
-      <c r="N17" t="s">
-        <v>2</v>
-      </c>
-      <c r="O17" t="s">
-        <v>2</v>
-      </c>
-      <c r="P17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>2</v>
-      </c>
-      <c r="R17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
         <v>44</v>
       </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="F26" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" t="s">
-        <v>41</v>
+      <c r="G26" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\_ИКТИБ\ТЯП\Лабораторная 1\laba_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C7362F-4F0F-42F5-B1B0-89BF5E5373E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F342C754-7047-4B09-97C8-BE6CCF138BC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1B2FF892-490A-4C90-9D47-3CF7BDEFEF69}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="57">
   <si>
     <t>Вт</t>
   </si>
@@ -189,25 +189,19 @@
     <t>Зам(i+1 Ф)</t>
   </si>
   <si>
-    <t>Ср</t>
-  </si>
-  <si>
-    <t>Чт</t>
-  </si>
-  <si>
-    <t>Пт</t>
-  </si>
-  <si>
-    <t>Сб</t>
-  </si>
-  <si>
-    <t>Вс</t>
-  </si>
-  <si>
     <t>Return</t>
   </si>
   <si>
     <t>Ret</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Sub</t>
+  </si>
+  <si>
+    <t>Вт(Sub 1,1)</t>
   </si>
 </sst>
 </file>
@@ -567,20 +561,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8B3DFA-6BE7-4C3E-BFA8-1A6D41607391}">
-  <dimension ref="A2:T26"/>
+  <dimension ref="A2:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:T19"/>
+      <selection activeCell="C5" sqref="C5:V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" customWidth="1"/>
+    <col min="20" max="20" width="7.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -636,10 +636,16 @@
         <v>46</v>
       </c>
       <c r="T3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="U3" t="s">
+        <v>54</v>
+      </c>
+      <c r="V3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>0</v>
       </c>
@@ -694,8 +700,14 @@
       <c r="T4">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <v>18</v>
+      </c>
+      <c r="V4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -753,8 +765,14 @@
       <c r="T5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -815,8 +833,14 @@
       <c r="T6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -877,8 +901,14 @@
       <c r="T7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -939,8 +969,14 @@
       <c r="T8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1001,8 +1037,14 @@
       <c r="T9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1060,8 +1102,14 @@
       <c r="T10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10" t="s">
+        <v>2</v>
+      </c>
+      <c r="V10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -1122,8 +1170,14 @@
       <c r="T11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11" t="s">
+        <v>2</v>
+      </c>
+      <c r="V11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -1184,8 +1238,14 @@
       <c r="T12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -1246,8 +1306,14 @@
       <c r="T13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U13" t="s">
+        <v>2</v>
+      </c>
+      <c r="V13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -1308,8 +1374,14 @@
       <c r="T14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14" t="s">
+        <v>2</v>
+      </c>
+      <c r="V14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -1370,8 +1442,14 @@
       <c r="T15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -1432,8 +1510,14 @@
       <c r="T16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16" t="s">
+        <v>2</v>
+      </c>
+      <c r="V16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -1494,8 +1578,14 @@
       <c r="T17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17" t="s">
+        <v>2</v>
+      </c>
+      <c r="V17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
@@ -1536,19 +1626,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="S18" t="s">
         <v>2</v>
@@ -1556,13 +1646,19 @@
       <c r="T18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18" t="s">
+        <v>2</v>
+      </c>
+      <c r="V18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
         <v>40</v>
@@ -1571,7 +1667,7 @@
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F19" t="s">
         <v>2</v>
@@ -1595,22 +1691,22 @@
         <v>2</v>
       </c>
       <c r="M19" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N19" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S19" t="s">
         <v>2</v>
@@ -1618,13 +1714,19 @@
       <c r="T19" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19" t="s">
+        <v>2</v>
+      </c>
+      <c r="V19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>9</v>
       </c>
@@ -1644,7 +1746,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>0</v>
       </c>
@@ -1661,7 +1763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -1684,7 +1786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1707,7 +1809,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\_ИКТИБ\ТЯП\Лабораторная 1\laba_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F342C754-7047-4B09-97C8-BE6CCF138BC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13BFBA6-BE83-4A1E-AE03-92D846AEDB35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1B2FF892-490A-4C90-9D47-3CF7BDEFEF69}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="60">
   <si>
     <t>Вт</t>
   </si>
@@ -201,7 +201,16 @@
     <t>Sub</t>
   </si>
   <si>
-    <t>Вт(Sub 1,1)</t>
+    <t>Вт(Sub 1 1)</t>
+  </si>
+  <si>
+    <t>Sub(1 1)</t>
+  </si>
+  <si>
+    <t>Sub(1,1)</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -561,16 +570,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8B3DFA-6BE7-4C3E-BFA8-1A6D41607391}">
-  <dimension ref="A2:V26"/>
+  <dimension ref="A2:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:V19"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" customWidth="1"/>
     <col min="12" max="12" width="6.140625" customWidth="1"/>
     <col min="20" max="20" width="7.7109375" customWidth="1"/>
   </cols>
@@ -1691,22 +1703,22 @@
         <v>2</v>
       </c>
       <c r="M19" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O19" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P19" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R19" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S19" t="s">
         <v>2</v>
@@ -1721,100 +1733,145 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>32</v>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" t="s">
+        <v>2</v>
+      </c>
+      <c r="S20" t="s">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s">
+        <v>2</v>
+      </c>
+      <c r="U20" t="s">
+        <v>2</v>
+      </c>
+      <c r="V20" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>9</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>39</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>29</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>10</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>1</v>
       </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
         <v>3</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -1823,12 +1880,58 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
         <v>37</v>
       </c>
       <c r="G26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" t="s">
         <v>37</v>
       </c>
     </row>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\_ИКТИБ\ТЯП\Лабораторная 1\laba_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13BFBA6-BE83-4A1E-AE03-92D846AEDB35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DADC3D6-0F60-4D0C-995B-066EC97DC11A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1B2FF892-490A-4C90-9D47-3CF7BDEFEF69}"/>
   </bookViews>
@@ -165,9 +165,6 @@
     <t>Вт(i j 1 D)</t>
   </si>
   <si>
-    <t>Вт(2А),Сост(0)</t>
-  </si>
-  <si>
     <t>Вых</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Вт(2A),Сост(0)</t>
   </si>
 </sst>
 </file>
@@ -574,7 +574,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,16 +645,16 @@
         <v>22</v>
       </c>
       <c r="S3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3" t="s">
         <v>54</v>
-      </c>
-      <c r="V3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T5" t="s">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -1073,10 +1073,10 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
         <v>2</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
         <v>28</v>
@@ -1602,7 +1602,7 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
@@ -1617,7 +1617,7 @@
         <v>27</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s">
         <v>2</v>
@@ -1670,7 +1670,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
         <v>40</v>
@@ -1703,22 +1703,22 @@
         <v>2</v>
       </c>
       <c r="M19" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N19" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S19" t="s">
         <v>2</v>
@@ -1738,7 +1738,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -1747,10 +1747,10 @@
         <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G20" t="s">
         <v>2</v>
@@ -1871,16 +1871,16 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
         <v>47</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>48</v>
       </c>
       <c r="F26" t="s">
         <v>37</v>
@@ -1894,7 +1894,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -1926,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F28" t="s">
         <v>37</v>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\_ИКТИБ\ТЯП\Лабораторная 1\laba_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DADC3D6-0F60-4D0C-995B-066EC97DC11A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC742D3-C520-4F6B-8B6B-E9DF37367D16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1B2FF892-490A-4C90-9D47-3CF7BDEFEF69}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="2010" windowWidth="15375" windowHeight="7875" xr2:uid="{1B2FF892-490A-4C90-9D47-3CF7BDEFEF69}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -574,7 +574,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
         <v>2</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
         <v>7</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
         <v>7</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
         <v>7</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
         <v>7</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
         <v>7</v>
